--- a/biology/Botanique/Olea_lancea/Olea_lancea.xlsx
+++ b/biology/Botanique/Olea_lancea/Olea_lancea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bois d'olive blanc (Olea lancea) est un arbuste à feuillage persistant de la famille des Oléacées, originaire de Madagascar et des Mascareignes.
 </t>
@@ -513,12 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Olea lancea est un arbrisseau (ou arbuste rameux) de 2 à 6 m de hauteur ou plus. Les jeunes pousses sont glabres.
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Olea lancea est un arbrisseau (ou arbuste rameux) de 2 à 6 m de hauteur ou plus. Les jeunes pousses sont glabres.
 Les pétioles  ont 3 à 7 (ou 10) mm de long. Les feuilles sont opposées, simples, le plus souvent entières, sans domaties, glabres. Le limbe est très étroitement ovale ou oblong, aigu au sommet, cunéiforme à la base, coriace, vert foncé et luisant à la face supérieure, glabre sur la face inférieure, à marge révolutée.
-Appareil reproducteur
-Les inflorescences sont des thyrses composés, terminaux et aux aisselles des feuilles supérieures. Les fleurs sont blanches.
-Les fruits sont de petites drupes ovales de 0,5 à 1 cm de long, de couleur verte devenant noire à maturité. Leur noyau très dur contient une seule graine.
 </t>
         </is>
       </c>
@@ -544,10 +558,50 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les inflorescences sont des thyrses composés, terminaux et aux aisselles des feuilles supérieures. Les fleurs sont blanches.
+Les fruits sont de petites drupes ovales de 0,5 à 1 cm de long, de couleur verte devenant noire à maturité. Leur noyau très dur contient une seule graine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Olea_lancea</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_lancea</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été rapportée des territoires suivants :
 Rodrigues (île) : haute vallée de la Baie sur Huitres, Grande Montagne ;
@@ -559,38 +613,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Olea_lancea</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Olea_lancea</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Utilisations</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C’est un arbre d’ornement, utilisé en restauration écologique. Le bois a été autrefois utilisé en ébénisterie.
-En vue du reboisement, des plants peuvent être obtenus à partir de noyaux traités en vue de la germination en pépinière (dépulpage, stratification et attaque acide). Des essais de bouturage sont en cours[1].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -612,10 +634,46 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C’est un arbre d’ornement, utilisé en restauration écologique. Le bois a été autrefois utilisé en ébénisterie.
+En vue du reboisement, des plants peuvent être obtenus à partir de noyaux traités en vue de la germination en pépinière (dépulpage, stratification et attaque acide). Des essais de bouturage sont en cours.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Olea_lancea</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_lancea</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
